--- a/backend/data/odds/nfl odds 2022-23.xlsx
+++ b/backend/data/odds/nfl odds 2022-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/NFL/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A4B241-1C31-4EB3-A734-1CB9ACED7F95}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DB672F-9951-4F30-85D7-E39DB1AE1A1B}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="360" windowWidth="10780" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>home</t>
   </si>
@@ -167,6 +167,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="C50">
-        <v>-195</v>
+        <v>-180</v>
       </c>
       <c r="D50">
         <v>170</v>
@@ -1810,7 +1811,7 @@
         <v>3.5</v>
       </c>
       <c r="F50">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -1827,16 +1828,16 @@
         <v>30</v>
       </c>
       <c r="C51">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D51">
-        <v>-145</v>
+        <v>-165</v>
       </c>
       <c r="E51">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>43.5</v>
+        <v>41.5</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -1853,16 +1854,16 @@
         <v>28</v>
       </c>
       <c r="C52">
-        <v>-175</v>
+        <v>-190</v>
       </c>
       <c r="D52">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F52">
-        <v>42.5</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -1879,13 +1880,13 @@
         <v>22</v>
       </c>
       <c r="C53">
-        <v>-175</v>
+        <v>-145</v>
       </c>
       <c r="D53">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E53">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F53">
         <v>39</v>
@@ -1905,16 +1906,16 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D54">
-        <v>-185</v>
+        <v>-155</v>
       </c>
       <c r="E54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -1931,16 +1932,16 @@
         <v>32</v>
       </c>
       <c r="C55">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D55">
-        <v>-235</v>
+        <v>-240</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -1957,16 +1958,16 @@
         <v>38</v>
       </c>
       <c r="C56">
-        <v>-225</v>
+        <v>-190</v>
       </c>
       <c r="D56">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E56">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -1983,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>-185</v>
+        <v>-190</v>
       </c>
       <c r="D57">
         <v>160</v>
@@ -1992,7 +1993,7 @@
         <v>3.5</v>
       </c>
       <c r="F57">
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="G57">
         <v>4</v>
@@ -2018,7 +2019,7 @@
         <v>6.5</v>
       </c>
       <c r="F58">
-        <v>48</v>
+        <v>45.5</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -2041,10 +2042,10 @@
         <v>150</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F59">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -2061,16 +2062,16 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D60">
-        <v>-125</v>
+        <v>-120</v>
       </c>
       <c r="E60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>49.5</v>
+        <v>47.5</v>
       </c>
       <c r="G60">
         <v>4</v>
@@ -2087,16 +2088,16 @@
         <v>41</v>
       </c>
       <c r="C61">
-        <v>-125</v>
+        <v>-115</v>
       </c>
       <c r="D61">
-        <v>105</v>
+        <v>-105</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="G61">
         <v>4</v>
@@ -2113,16 +2114,16 @@
         <v>39</v>
       </c>
       <c r="C62">
-        <v>-135</v>
+        <v>-145</v>
       </c>
       <c r="D62">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>2.5</v>
       </c>
       <c r="F62">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -2139,16 +2140,16 @@
         <v>15</v>
       </c>
       <c r="C63">
-        <v>-540</v>
+        <v>-425</v>
       </c>
       <c r="D63">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="E63">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F63">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -2165,16 +2166,16 @@
         <v>35</v>
       </c>
       <c r="C64">
-        <v>115</v>
+        <v>-110</v>
       </c>
       <c r="D64">
-        <v>-135</v>
+        <v>-110</v>
       </c>
       <c r="E64">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>45</v>
+        <v>45.5</v>
       </c>
       <c r="G64">
         <v>4</v>
@@ -2191,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>-135</v>
+        <v>-125</v>
       </c>
       <c r="D65">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E65">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F65">
         <v>42.5</v>
@@ -2206,6 +2207,422 @@
         <v>4</v>
       </c>
       <c r="H65">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>-170</v>
+      </c>
+      <c r="D66">
+        <v>150</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>42.5</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>-360</v>
+      </c>
+      <c r="D67">
+        <v>300</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>41.5</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>-220</v>
+      </c>
+      <c r="D68">
+        <v>185</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>45.5</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <v>-315</v>
+      </c>
+      <c r="D69">
+        <v>260</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>43.5</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70">
+        <v>-830</v>
+      </c>
+      <c r="D70">
+        <v>700</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>46.5</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>-460</v>
+      </c>
+      <c r="D71">
+        <v>380</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>46.5</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>-330</v>
+      </c>
+      <c r="D72">
+        <v>280</v>
+      </c>
+      <c r="E72">
+        <v>7.5</v>
+      </c>
+      <c r="F72">
+        <v>44</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>-110</v>
+      </c>
+      <c r="D73">
+        <v>-110</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>43</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>155</v>
+      </c>
+      <c r="D74">
+        <v>-175</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>45</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75">
+        <v>105</v>
+      </c>
+      <c r="D75">
+        <v>-125</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>46.5</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>-165</v>
+      </c>
+      <c r="D76">
+        <v>145</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>45.5</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>245</v>
+      </c>
+      <c r="D77">
+        <v>-280</v>
+      </c>
+      <c r="E77">
+        <v>6.5</v>
+      </c>
+      <c r="F77">
+        <v>39.5</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>195</v>
+      </c>
+      <c r="D78">
+        <v>-225</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>48.5</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79">
+        <v>-220</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79">
+        <v>5.5</v>
+      </c>
+      <c r="F79">
+        <v>42</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>-175</v>
+      </c>
+      <c r="D80">
+        <v>155</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>47.5</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>-315</v>
+      </c>
+      <c r="D81">
+        <v>275</v>
+      </c>
+      <c r="E81">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>51.5</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
         <v>2022</v>
       </c>
     </row>

--- a/backend/data/odds/nfl odds 2022-23.xlsx
+++ b/backend/data/odds/nfl odds 2022-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/NFL/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DB672F-9951-4F30-85D7-E39DB1AE1A1B}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438AE644-83BC-4882-9C41-8285FA5E9B10}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,10 +2608,10 @@
         <v>33</v>
       </c>
       <c r="C81">
-        <v>-315</v>
+        <v>-345</v>
       </c>
       <c r="D81">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="E81">
         <v>7</v>

--- a/backend/data/odds/nfl odds 2022-23.xlsx
+++ b/backend/data/odds/nfl odds 2022-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8403595d4321e36a/Documents/Python/NFL/backend/data/odds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438AE644-83BC-4882-9C41-8285FA5E9B10}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="11_0E25D3F6C7544E0F62355476585DCE3A87475678" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB9BCE8-506D-45A3-8C2B-64C4B80C06F0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="0" windowWidth="10780" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="43">
   <si>
     <t>home</t>
   </si>
@@ -225,6 +225,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2626,6 +2630,1098 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>-105</v>
+      </c>
+      <c r="D82">
+        <v>-115</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>38</v>
+      </c>
+      <c r="G82">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>360</v>
+      </c>
+      <c r="D83">
+        <v>-455</v>
+      </c>
+      <c r="E83">
+        <v>9.5</v>
+      </c>
+      <c r="F83">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>125</v>
+      </c>
+      <c r="D84">
+        <v>-140</v>
+      </c>
+      <c r="E84">
+        <v>2.5</v>
+      </c>
+      <c r="F84">
+        <v>43</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>-130</v>
+      </c>
+      <c r="D85">
+        <v>110</v>
+      </c>
+      <c r="E85">
+        <v>1.5</v>
+      </c>
+      <c r="F85">
+        <v>41.5</v>
+      </c>
+      <c r="G85">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86">
+        <v>-145</v>
+      </c>
+      <c r="D86">
+        <v>125</v>
+      </c>
+      <c r="E86">
+        <v>2.5</v>
+      </c>
+      <c r="F86">
+        <v>43</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>-340</v>
+      </c>
+      <c r="D87">
+        <v>280</v>
+      </c>
+      <c r="E87">
+        <v>7.5</v>
+      </c>
+      <c r="F87">
+        <v>45</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>205</v>
+      </c>
+      <c r="D88">
+        <v>-245</v>
+      </c>
+      <c r="E88">
+        <v>5.5</v>
+      </c>
+      <c r="F88">
+        <v>46.5</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>145</v>
+      </c>
+      <c r="D89">
+        <v>-165</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>45.5</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>180</v>
+      </c>
+      <c r="D90">
+        <v>-210</v>
+      </c>
+      <c r="E90">
+        <v>4.5</v>
+      </c>
+      <c r="F90">
+        <v>44.5</v>
+      </c>
+      <c r="G90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>-450</v>
+      </c>
+      <c r="D91">
+        <v>370</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>42</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92">
+        <v>125</v>
+      </c>
+      <c r="D92">
+        <v>-145</v>
+      </c>
+      <c r="E92">
+        <v>2.5</v>
+      </c>
+      <c r="F92">
+        <v>50.5</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>125</v>
+      </c>
+      <c r="D93">
+        <v>-145</v>
+      </c>
+      <c r="E93">
+        <v>2.5</v>
+      </c>
+      <c r="F93">
+        <v>54</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94">
+        <v>-265</v>
+      </c>
+      <c r="D94">
+        <v>225</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>42</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95">
+        <v>-235</v>
+      </c>
+      <c r="D95">
+        <v>195</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>45.5</v>
+      </c>
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>-130</v>
+      </c>
+      <c r="D96">
+        <v>110</v>
+      </c>
+      <c r="E96">
+        <v>1.5</v>
+      </c>
+      <c r="F96">
+        <v>44</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+      <c r="H96">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97">
+        <v>-330</v>
+      </c>
+      <c r="D97">
+        <v>240</v>
+      </c>
+      <c r="E97">
+        <v>7.5</v>
+      </c>
+      <c r="F97">
+        <v>49</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+      <c r="H97">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>-160</v>
+      </c>
+      <c r="D98">
+        <v>140</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>42</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>-145</v>
+      </c>
+      <c r="D99">
+        <v>125</v>
+      </c>
+      <c r="E99">
+        <v>2.5</v>
+      </c>
+      <c r="F99">
+        <v>42.5</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>-265</v>
+      </c>
+      <c r="D100">
+        <v>195</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>47.5</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>-275</v>
+      </c>
+      <c r="D101">
+        <v>205</v>
+      </c>
+      <c r="E101">
+        <v>6.5</v>
+      </c>
+      <c r="F101">
+        <v>45.5</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>40</v>
+      </c>
+      <c r="C102">
+        <v>330</v>
+      </c>
+      <c r="D102">
+        <v>-505</v>
+      </c>
+      <c r="E102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>40.5</v>
+      </c>
+      <c r="G102">
+        <v>7</v>
+      </c>
+      <c r="H102">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>175</v>
+      </c>
+      <c r="D103">
+        <v>-215</v>
+      </c>
+      <c r="E103">
+        <v>5.5</v>
+      </c>
+      <c r="F103">
+        <v>41.5</v>
+      </c>
+      <c r="G103">
+        <v>7</v>
+      </c>
+      <c r="H103">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104">
+        <v>-300</v>
+      </c>
+      <c r="D104">
+        <v>220</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>45.5</v>
+      </c>
+      <c r="G104">
+        <v>7</v>
+      </c>
+      <c r="H104">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105">
+        <v>125</v>
+      </c>
+      <c r="D105">
+        <v>-145</v>
+      </c>
+      <c r="E105">
+        <v>2.5</v>
+      </c>
+      <c r="F105">
+        <v>48.5</v>
+      </c>
+      <c r="G105">
+        <v>7</v>
+      </c>
+      <c r="H105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106">
+        <v>-250</v>
+      </c>
+      <c r="D106">
+        <v>190</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>51</v>
+      </c>
+      <c r="G106">
+        <v>7</v>
+      </c>
+      <c r="H106">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <v>-315</v>
+      </c>
+      <c r="D107">
+        <v>225</v>
+      </c>
+      <c r="E107">
+        <v>7</v>
+      </c>
+      <c r="F107">
+        <v>45</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>-370</v>
+      </c>
+      <c r="D108">
+        <v>270</v>
+      </c>
+      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>40</v>
+      </c>
+      <c r="G108">
+        <v>7</v>
+      </c>
+      <c r="H108">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109">
+        <v>-135</v>
+      </c>
+      <c r="D109">
+        <v>115</v>
+      </c>
+      <c r="E109">
+        <v>2.5</v>
+      </c>
+      <c r="F109">
+        <v>40.5</v>
+      </c>
+      <c r="G109">
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110">
+        <v>-475</v>
+      </c>
+      <c r="D110">
+        <v>375</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>43</v>
+      </c>
+      <c r="G110">
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <v>-120</v>
+      </c>
+      <c r="E111">
+        <v>1.5</v>
+      </c>
+      <c r="F111">
+        <v>49.5</v>
+      </c>
+      <c r="G111">
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112">
+        <v>-210</v>
+      </c>
+      <c r="D112">
+        <v>175</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>41</v>
+      </c>
+      <c r="G112">
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <v>-500</v>
+      </c>
+      <c r="D113">
+        <v>405</v>
+      </c>
+      <c r="E113">
+        <v>10.5</v>
+      </c>
+      <c r="F113">
+        <v>42.5</v>
+      </c>
+      <c r="G113">
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>160</v>
+      </c>
+      <c r="D114">
+        <v>-185</v>
+      </c>
+      <c r="E114">
+        <v>3.5</v>
+      </c>
+      <c r="F114">
+        <v>51.5</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>-190</v>
+      </c>
+      <c r="D115">
+        <v>165</v>
+      </c>
+      <c r="E115">
+        <v>3.5</v>
+      </c>
+      <c r="F115">
+        <v>49</v>
+      </c>
+      <c r="G115">
+        <v>8</v>
+      </c>
+      <c r="H115">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>125</v>
+      </c>
+      <c r="D116">
+        <v>-145</v>
+      </c>
+      <c r="E116">
+        <v>2.5</v>
+      </c>
+      <c r="F116">
+        <v>40</v>
+      </c>
+      <c r="G116">
+        <v>8</v>
+      </c>
+      <c r="H116">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117">
+        <v>-110</v>
+      </c>
+      <c r="D117">
+        <v>-110</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>39</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118">
+        <v>-165</v>
+      </c>
+      <c r="D118">
+        <v>145</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>44.5</v>
+      </c>
+      <c r="G118">
+        <v>8</v>
+      </c>
+      <c r="H118">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>-150</v>
+      </c>
+      <c r="D119">
+        <v>130</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>39.5</v>
+      </c>
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>-110</v>
+      </c>
+      <c r="D120">
+        <v>-110</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>42</v>
+      </c>
+      <c r="G120">
+        <v>8</v>
+      </c>
+      <c r="H120">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121">
+        <v>-525</v>
+      </c>
+      <c r="D121">
+        <v>410</v>
+      </c>
+      <c r="E121">
+        <v>10.5</v>
+      </c>
+      <c r="F121">
+        <v>47</v>
+      </c>
+      <c r="G121">
+        <v>8</v>
+      </c>
+      <c r="H121">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122">
+        <v>150</v>
+      </c>
+      <c r="D122">
+        <v>-170</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>45</v>
+      </c>
+      <c r="G122">
+        <v>8</v>
+      </c>
+      <c r="H122">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123">
+        <v>550</v>
+      </c>
+      <c r="D123">
+        <v>-800</v>
+      </c>
+      <c r="E123">
+        <v>13.5</v>
+      </c>
+      <c r="F123">
+        <v>45</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
